--- a/Code/Results/Cases/Case_1_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_126/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2639751169012072</v>
+        <v>0.1422414279964386</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03371800371007083</v>
+        <v>0.01400460190776442</v>
       </c>
       <c r="E2">
-        <v>0.05361614454888652</v>
+        <v>0.08864131303648648</v>
       </c>
       <c r="F2">
-        <v>6.892636208834034</v>
+        <v>5.609871405344876</v>
       </c>
       <c r="G2">
-        <v>0.0008294670420164454</v>
+        <v>0.002619404300825338</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2856061165489905</v>
+        <v>0.2617275775319428</v>
       </c>
       <c r="K2">
-        <v>2.612911910696255</v>
+        <v>1.967594058825682</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2302101604621356</v>
+        <v>0.1331397727514769</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02899957488597948</v>
+        <v>0.01367147428668147</v>
       </c>
       <c r="E3">
-        <v>0.04773073829053232</v>
+        <v>0.08853555261237034</v>
       </c>
       <c r="F3">
-        <v>6.196464361351332</v>
+        <v>5.434395206803913</v>
       </c>
       <c r="G3">
-        <v>0.0008408870041512547</v>
+        <v>0.002626026343611007</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2539983333422811</v>
+        <v>0.2551776838463411</v>
       </c>
       <c r="K3">
-        <v>2.251951997618477</v>
+        <v>1.910687168615652</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.209764079199374</v>
+        <v>0.127628277791743</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02620049969238636</v>
+        <v>0.01349192012559186</v>
       </c>
       <c r="E4">
-        <v>0.04428213687417326</v>
+        <v>0.08854587625093657</v>
       </c>
       <c r="F4">
-        <v>5.780781166678139</v>
+        <v>5.328213749746624</v>
       </c>
       <c r="G4">
-        <v>0.0008480432041369711</v>
+        <v>0.002630300206691738</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.235196730649065</v>
+        <v>0.2512937802319897</v>
       </c>
       <c r="K4">
-        <v>2.037657993266208</v>
+        <v>1.877807995752818</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2014952307632427</v>
+        <v>0.1254016796910378</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02508019108808313</v>
+        <v>0.01342492090634551</v>
       </c>
       <c r="E5">
-        <v>0.04291396162473404</v>
+        <v>0.0885689804184473</v>
       </c>
       <c r="F5">
-        <v>5.61394767270599</v>
+        <v>5.285329602325845</v>
       </c>
       <c r="G5">
-        <v>0.000850999043546283</v>
+        <v>0.00263209432173687</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2276681963477216</v>
+        <v>0.2497454300501403</v>
       </c>
       <c r="K5">
-        <v>1.951933092802506</v>
+        <v>1.864925114550488</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2001257639839054</v>
+        <v>0.1250331262349249</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0248952755395031</v>
+        <v>0.01341416514234339</v>
       </c>
       <c r="E6">
-        <v>0.04268890330889263</v>
+        <v>0.08857395741261698</v>
       </c>
       <c r="F6">
-        <v>5.586388890999444</v>
+        <v>5.27823181126189</v>
       </c>
       <c r="G6">
-        <v>0.0008514923432427259</v>
+        <v>0.002632395408621232</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2264256197334333</v>
+        <v>0.2494903959292145</v>
       </c>
       <c r="K6">
-        <v>1.937788672454985</v>
+        <v>1.862816984567559</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2096523181665333</v>
+        <v>0.1275981705979916</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02618531384365852</v>
+        <v>0.01349099171399715</v>
       </c>
       <c r="E7">
-        <v>0.04426354013260081</v>
+        <v>0.0885461113625361</v>
       </c>
       <c r="F7">
-        <v>5.778521320059269</v>
+        <v>5.327633846846425</v>
       </c>
       <c r="G7">
-        <v>0.0008480829030125889</v>
+        <v>0.002630324190020289</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.235094682285677</v>
+        <v>0.2512727598189741</v>
       </c>
       <c r="K7">
-        <v>2.036495694112858</v>
+        <v>1.877632168540799</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2522681292792583</v>
+        <v>0.1390872183313974</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03206798124151078</v>
+        <v>0.01388448510270024</v>
       </c>
       <c r="E8">
-        <v>0.05154982155475096</v>
+        <v>0.0885892088096405</v>
       </c>
       <c r="F8">
-        <v>6.649899703983579</v>
+        <v>5.549038786046168</v>
       </c>
       <c r="G8">
-        <v>0.0008333768223630711</v>
+        <v>0.002621644553202403</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2745699083799877</v>
+        <v>0.2594404173400164</v>
       </c>
       <c r="K8">
-        <v>2.48677474414896</v>
+        <v>1.947542867528597</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3385480495319371</v>
+        <v>0.1622279766477703</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04460613807868441</v>
+        <v>0.0148595529850013</v>
       </c>
       <c r="E9">
-        <v>0.06737410078479655</v>
+        <v>0.08927240893389055</v>
       </c>
       <c r="F9">
-        <v>8.472641827966214</v>
+        <v>5.995946731249944</v>
       </c>
       <c r="G9">
-        <v>0.000805510960761041</v>
+        <v>0.002606264158025655</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3577723252541745</v>
+        <v>0.2765635535856887</v>
       </c>
       <c r="K9">
-        <v>3.440663823988473</v>
+        <v>2.101139752984466</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4042938308422492</v>
+        <v>0.179604133022309</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0547974452380231</v>
+        <v>0.015707216398539</v>
       </c>
       <c r="E10">
-        <v>0.08030865228174378</v>
+        <v>0.09014183852970703</v>
       </c>
       <c r="F10">
-        <v>9.914884526957053</v>
+        <v>6.332564296647433</v>
       </c>
       <c r="G10">
-        <v>0.0007853507129191906</v>
+        <v>0.002595951170951626</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4240445035972016</v>
+        <v>0.2898386818632162</v>
       </c>
       <c r="K10">
-        <v>4.205614490915195</v>
+        <v>2.22426530907984</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.434899852045433</v>
+        <v>0.1875910015887001</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05974902656857495</v>
+        <v>0.0161229402510088</v>
       </c>
       <c r="E11">
-        <v>0.08658044845670432</v>
+        <v>0.09061775853110277</v>
       </c>
       <c r="F11">
-        <v>10.60261700277408</v>
+        <v>6.487611174891811</v>
       </c>
       <c r="G11">
-        <v>0.0007761704186017848</v>
+        <v>0.002591471050010265</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4557552733736827</v>
+        <v>0.2960333181501795</v>
       </c>
       <c r="K11">
-        <v>4.573368178099201</v>
+        <v>2.282559767541215</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4466080477269969</v>
+        <v>0.190627278045767</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06168007650621377</v>
+        <v>0.01628482547791066</v>
       </c>
       <c r="E12">
-        <v>0.08902187210787815</v>
+        <v>0.0908095870070369</v>
       </c>
       <c r="F12">
-        <v>10.86854120532877</v>
+        <v>6.546607912799232</v>
       </c>
       <c r="G12">
-        <v>0.0007726848923754879</v>
+        <v>0.002589804715086054</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4680338475039179</v>
+        <v>0.2984018067596992</v>
       </c>
       <c r="K12">
-        <v>4.716075565248843</v>
+        <v>2.3049666591603</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.444080897185799</v>
+        <v>0.1899728360913002</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06126150789419427</v>
+        <v>0.01624976018467095</v>
       </c>
       <c r="E13">
-        <v>0.08849292076703108</v>
+        <v>0.09076775631181278</v>
       </c>
       <c r="F13">
-        <v>10.81100831294799</v>
+        <v>6.53388915548544</v>
       </c>
       <c r="G13">
-        <v>0.0007734361102017808</v>
+        <v>0.002590162250521612</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4653765897154614</v>
+        <v>0.2978906949176974</v>
       </c>
       <c r="K13">
-        <v>4.685176747515015</v>
+        <v>2.300126107760718</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4358606070910866</v>
+        <v>0.1878405610525249</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05990670458356107</v>
+        <v>0.01613616852428379</v>
       </c>
       <c r="E14">
-        <v>0.08677990588890694</v>
+        <v>0.09063330747150644</v>
       </c>
       <c r="F14">
-        <v>10.62437857422179</v>
+        <v>6.492459136562161</v>
       </c>
       <c r="G14">
-        <v>0.0007758838957603758</v>
+        <v>0.002591333355516403</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4567597273338606</v>
+        <v>0.2962277180293853</v>
       </c>
       <c r="K14">
-        <v>4.585035827374099</v>
+        <v>2.284396520282428</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4308414379270005</v>
+        <v>0.1865360200763035</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05908449169137953</v>
+        <v>0.0160671749802006</v>
       </c>
       <c r="E15">
-        <v>0.08573963815170416</v>
+        <v>0.09055246673172235</v>
       </c>
       <c r="F15">
-        <v>10.51080911638547</v>
+        <v>6.467119261069456</v>
       </c>
       <c r="G15">
-        <v>0.0007773817865169121</v>
+        <v>0.002592054617135079</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4515183660306832</v>
+        <v>0.2952120644473268</v>
       </c>
       <c r="K15">
-        <v>4.524165492265183</v>
+        <v>2.274805044717198</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4023091761957858</v>
+        <v>0.1790838279230513</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05448105841265516</v>
+        <v>0.0156806648749992</v>
       </c>
       <c r="E16">
-        <v>0.07990744500943237</v>
+        <v>0.09011235790925909</v>
       </c>
       <c r="F16">
-        <v>9.870653196017486</v>
+        <v>6.322470896955082</v>
       </c>
       <c r="G16">
-        <v>0.0007859498442871971</v>
+        <v>0.002596248192746229</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.422007292493177</v>
+        <v>0.2894370086033859</v>
       </c>
       <c r="K16">
-        <v>4.182027778675319</v>
+        <v>2.220501895290909</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3849962839834831</v>
+        <v>0.1745332296578255</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05174474495753145</v>
+        <v>0.01545135831885602</v>
       </c>
       <c r="E17">
-        <v>0.07643587858396117</v>
+        <v>0.08986299200282488</v>
       </c>
       <c r="F17">
-        <v>9.48666284590945</v>
+        <v>6.234230714896711</v>
       </c>
       <c r="G17">
-        <v>0.0007911985695183471</v>
+        <v>0.002598874797138485</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4043334409203538</v>
+        <v>0.2859343083366923</v>
       </c>
       <c r="K17">
-        <v>3.977595801797861</v>
+        <v>2.187776196997049</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3751028354303827</v>
+        <v>0.1719235999141375</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05019984323065785</v>
+        <v>0.01532229425031062</v>
       </c>
       <c r="E18">
-        <v>0.07447488217419007</v>
+        <v>0.08972712928861526</v>
       </c>
       <c r="F18">
-        <v>9.268715064722073</v>
+        <v>6.183657323547152</v>
       </c>
       <c r="G18">
-        <v>0.0007942171655340927</v>
+        <v>0.002600405451789074</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3943118698587966</v>
+        <v>0.2839342845628465</v>
       </c>
       <c r="K18">
-        <v>3.861830879751722</v>
+        <v>2.16916800209151</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3717636515686564</v>
+        <v>0.1710413565805453</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04968144759946114</v>
+        <v>0.01527907701887443</v>
       </c>
       <c r="E19">
-        <v>0.07381677101913198</v>
+        <v>0.08968242664133186</v>
       </c>
       <c r="F19">
-        <v>9.195396058840686</v>
+        <v>6.166564718616115</v>
       </c>
       <c r="G19">
-        <v>0.0007952393683392271</v>
+        <v>0.002600927128796273</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3909422088840842</v>
+        <v>0.2832596150429652</v>
       </c>
       <c r="K19">
-        <v>3.822930733319197</v>
+        <v>2.162904364343262</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3868324769004374</v>
+        <v>0.1750168462642279</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05203296315221451</v>
+        <v>0.01547547488257095</v>
       </c>
       <c r="E20">
-        <v>0.07680166124067611</v>
+        <v>0.08988875406432228</v>
       </c>
       <c r="F20">
-        <v>9.527231471493963</v>
+        <v>6.243605342779233</v>
       </c>
       <c r="G20">
-        <v>0.0007906399201717167</v>
+        <v>0.002598593132229265</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.406199649746398</v>
+        <v>0.2863056595939781</v>
       </c>
       <c r="K20">
-        <v>3.999165678363227</v>
+        <v>2.191237650711514</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4382717358367501</v>
+        <v>0.188466541217025</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06030302827218748</v>
+        <v>0.01616941108035519</v>
       </c>
       <c r="E21">
-        <v>0.0872811615151754</v>
+        <v>0.09067248295228225</v>
       </c>
       <c r="F21">
-        <v>10.67903870721773</v>
+        <v>6.504620368826806</v>
       </c>
       <c r="G21">
-        <v>0.0007751652395202648</v>
+        <v>0.00259098855589329</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4592829630334592</v>
+        <v>0.2967155555841998</v>
       </c>
       <c r="K21">
-        <v>4.614350678331277</v>
+        <v>2.289007640528496</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4725906670357176</v>
+        <v>0.1973255974078398</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0660409394901933</v>
+        <v>0.01664899367552408</v>
       </c>
       <c r="E22">
-        <v>0.09452390301835578</v>
+        <v>0.09125237717265833</v>
       </c>
       <c r="F22">
-        <v>11.46441633348076</v>
+        <v>6.67686711515654</v>
       </c>
       <c r="G22">
-        <v>0.0007649935440067577</v>
+        <v>0.002586194404056035</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4955799992513761</v>
+        <v>0.3036515757896296</v>
       </c>
       <c r="K22">
-        <v>5.036875405141359</v>
+        <v>2.354843145885241</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4542032056745171</v>
+        <v>0.1925910543711211</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06294395092363203</v>
+        <v>0.01639060435000772</v>
       </c>
       <c r="E23">
-        <v>0.09061818406133426</v>
+        <v>0.09093666843327952</v>
       </c>
       <c r="F23">
-        <v>11.04190101782615</v>
+        <v>6.584781345952536</v>
       </c>
       <c r="G23">
-        <v>0.0007704306745245663</v>
+        <v>0.002588737104952307</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4760433394054928</v>
+        <v>0.2999374542084894</v>
       </c>
       <c r="K23">
-        <v>4.809260739299873</v>
+        <v>2.319527027410345</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3860021486289753</v>
+        <v>0.1747981827306404</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05190257251142327</v>
+        <v>0.01546456317449696</v>
       </c>
       <c r="E24">
-        <v>0.0766361831160367</v>
+        <v>0.08987708367545721</v>
       </c>
       <c r="F24">
-        <v>9.508881701587512</v>
+        <v>6.239366584899841</v>
       </c>
       <c r="G24">
-        <v>0.0007908924818203153</v>
+        <v>0.002598720408953021</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4053555059670941</v>
+        <v>0.2861377289637517</v>
       </c>
       <c r="K24">
-        <v>3.989408481146086</v>
+        <v>2.189672085351617</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.314849485171294</v>
+        <v>0.1559021711590134</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04107245299725548</v>
+        <v>0.014573247413459</v>
       </c>
       <c r="E25">
-        <v>0.06289394507508206</v>
+        <v>0.0890232400559583</v>
       </c>
       <c r="F25">
-        <v>7.964180659457099</v>
+        <v>5.87363064537243</v>
       </c>
       <c r="G25">
-        <v>0.0008129716751197453</v>
+        <v>0.002610250697791261</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3344923867521459</v>
+        <v>0.2718107735801709</v>
       </c>
       <c r="K25">
-        <v>3.173067158810397</v>
+        <v>2.057798903872083</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_126/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_126/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1422414279964386</v>
+        <v>0.2639751169010367</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01400460190776442</v>
+        <v>0.03371800370986477</v>
       </c>
       <c r="E2">
-        <v>0.08864131303648648</v>
+        <v>0.05361614454887587</v>
       </c>
       <c r="F2">
-        <v>5.609871405344876</v>
+        <v>6.892636208834034</v>
       </c>
       <c r="G2">
-        <v>0.002619404300825338</v>
+        <v>0.0008294670418228717</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2617275775319428</v>
+        <v>0.2856061165490473</v>
       </c>
       <c r="K2">
-        <v>1.967594058825682</v>
+        <v>2.612911910696397</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1331397727514769</v>
+        <v>0.2302101604621356</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01367147428668147</v>
+        <v>0.02899957488590132</v>
       </c>
       <c r="E3">
-        <v>0.08853555261237034</v>
+        <v>0.04773073829046126</v>
       </c>
       <c r="F3">
-        <v>5.434395206803913</v>
+        <v>6.196464361351389</v>
       </c>
       <c r="G3">
-        <v>0.002626026343611007</v>
+        <v>0.0008408870040489485</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2551776838463411</v>
+        <v>0.2539983333421247</v>
       </c>
       <c r="K3">
-        <v>1.910687168615652</v>
+        <v>2.251951997618391</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.127628277791743</v>
+        <v>0.2097640791992319</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01349192012559186</v>
+        <v>0.02620049969227622</v>
       </c>
       <c r="E4">
-        <v>0.08854587625093657</v>
+        <v>0.04428213687420879</v>
       </c>
       <c r="F4">
-        <v>5.328213749746624</v>
+        <v>5.780781166678082</v>
       </c>
       <c r="G4">
-        <v>0.002630300206691738</v>
+        <v>0.0008480432041474072</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2512937802319897</v>
+        <v>0.2351967306491787</v>
       </c>
       <c r="K4">
-        <v>1.877807995752818</v>
+        <v>2.037657993266151</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1254016796910378</v>
+        <v>0.2014952307633138</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01342492090634551</v>
+        <v>0.02508019108828563</v>
       </c>
       <c r="E5">
-        <v>0.0885689804184473</v>
+        <v>0.0429139616247447</v>
       </c>
       <c r="F5">
-        <v>5.285329602325845</v>
+        <v>5.613947672706047</v>
       </c>
       <c r="G5">
-        <v>0.00263209432173687</v>
+        <v>0.0008509990434801526</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2497454300501403</v>
+        <v>0.2276681963476364</v>
       </c>
       <c r="K5">
-        <v>1.864925114550488</v>
+        <v>1.951933092802477</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1250331262349249</v>
+        <v>0.2001257639838343</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01341416514234339</v>
+        <v>0.02489527553921178</v>
       </c>
       <c r="E6">
-        <v>0.08857395741261698</v>
+        <v>0.04268890330887132</v>
       </c>
       <c r="F6">
-        <v>5.27823181126189</v>
+        <v>5.586388890999473</v>
       </c>
       <c r="G6">
-        <v>0.002632395408621232</v>
+        <v>0.0008514923432923436</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2494903959292145</v>
+        <v>0.2264256197334475</v>
       </c>
       <c r="K6">
-        <v>1.862816984567559</v>
+        <v>1.937788672455014</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1275981705979916</v>
+        <v>0.2096523181665333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01349099171399715</v>
+        <v>0.02618531384399603</v>
       </c>
       <c r="E7">
-        <v>0.0885461113625361</v>
+        <v>0.04426354013263278</v>
       </c>
       <c r="F7">
-        <v>5.327633846846425</v>
+        <v>5.778521320059184</v>
       </c>
       <c r="G7">
-        <v>0.002630324190020289</v>
+        <v>0.0008480829031572663</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2512727598189741</v>
+        <v>0.2350946822859186</v>
       </c>
       <c r="K7">
-        <v>1.877632168540799</v>
+        <v>2.036495694112716</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1390872183313974</v>
+        <v>0.2522681292792299</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01388448510270024</v>
+        <v>0.03206798124149657</v>
       </c>
       <c r="E8">
-        <v>0.0885892088096405</v>
+        <v>0.05154982155469412</v>
       </c>
       <c r="F8">
-        <v>5.549038786046168</v>
+        <v>6.649899703983522</v>
       </c>
       <c r="G8">
-        <v>0.002621644553202403</v>
+        <v>0.0008333768223590936</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2594404173400164</v>
+        <v>0.274569908380073</v>
       </c>
       <c r="K8">
-        <v>1.947542867528597</v>
+        <v>2.486774744148931</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1622279766477703</v>
+        <v>0.3385480495319655</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0148595529850013</v>
+        <v>0.0446061380784144</v>
       </c>
       <c r="E9">
-        <v>0.08927240893389055</v>
+        <v>0.06737410078483919</v>
       </c>
       <c r="F9">
-        <v>5.995946731249944</v>
+        <v>8.472641827966243</v>
       </c>
       <c r="G9">
-        <v>0.002606264158025655</v>
+        <v>0.0008055109605384296</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2765635535856887</v>
+        <v>0.3577723252540466</v>
       </c>
       <c r="K9">
-        <v>2.101139752984466</v>
+        <v>3.440663823988416</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.179604133022309</v>
+        <v>0.4042938308420787</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.015707216398539</v>
+        <v>0.05479744523804442</v>
       </c>
       <c r="E10">
-        <v>0.09014183852970703</v>
+        <v>0.08030865228176154</v>
       </c>
       <c r="F10">
-        <v>6.332564296647433</v>
+        <v>9.914884526957053</v>
       </c>
       <c r="G10">
-        <v>0.002595951170951626</v>
+        <v>0.0007853507128084684</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2898386818632162</v>
+        <v>0.4240445035970311</v>
       </c>
       <c r="K10">
-        <v>2.22426530907984</v>
+        <v>4.205614490915139</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1875910015887001</v>
+        <v>0.4348998520452909</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0161229402510088</v>
+        <v>0.05974902656853942</v>
       </c>
       <c r="E11">
-        <v>0.09061775853110277</v>
+        <v>0.08658044845668655</v>
       </c>
       <c r="F11">
-        <v>6.487611174891811</v>
+        <v>10.60261700277414</v>
       </c>
       <c r="G11">
-        <v>0.002591471050010265</v>
+        <v>0.0007761704184784427</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2960333181501795</v>
+        <v>0.4557552733734553</v>
       </c>
       <c r="K11">
-        <v>2.282559767541215</v>
+        <v>4.573368178098974</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.190627278045767</v>
+        <v>0.4466080477266701</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01628482547791066</v>
+        <v>0.06168007650588692</v>
       </c>
       <c r="E12">
-        <v>0.0908095870070369</v>
+        <v>0.08902187210778578</v>
       </c>
       <c r="F12">
-        <v>6.546607912799232</v>
+        <v>10.868541205329</v>
       </c>
       <c r="G12">
-        <v>0.002589804715086054</v>
+        <v>0.0007726848924620853</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2984018067596992</v>
+        <v>0.4680338475039605</v>
       </c>
       <c r="K12">
-        <v>2.3049666591603</v>
+        <v>4.716075565248673</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1899728360913002</v>
+        <v>0.4440808971862822</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01624976018467095</v>
+        <v>0.06126150789434348</v>
       </c>
       <c r="E13">
-        <v>0.09076775631181278</v>
+        <v>0.088492920767127</v>
       </c>
       <c r="F13">
-        <v>6.53388915548544</v>
+        <v>10.81100831294816</v>
       </c>
       <c r="G13">
-        <v>0.002590162250521612</v>
+        <v>0.0007734361100791291</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2978906949176974</v>
+        <v>0.4653765897154329</v>
       </c>
       <c r="K13">
-        <v>2.300126107760718</v>
+        <v>4.685176747515072</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1878405610525249</v>
+        <v>0.4358606070912003</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01613616852428379</v>
+        <v>0.0599067045833479</v>
       </c>
       <c r="E14">
-        <v>0.09063330747150644</v>
+        <v>0.08677990588885365</v>
       </c>
       <c r="F14">
-        <v>6.492459136562161</v>
+        <v>10.62437857422179</v>
       </c>
       <c r="G14">
-        <v>0.002591333355516403</v>
+        <v>0.0007758838956428289</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2962277180293853</v>
+        <v>0.4567597273338038</v>
       </c>
       <c r="K14">
-        <v>2.284396520282428</v>
+        <v>4.585035827373815</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1865360200763035</v>
+        <v>0.4308414379268584</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0160671749802006</v>
+        <v>0.05908449169115215</v>
       </c>
       <c r="E15">
-        <v>0.09055246673172235</v>
+        <v>0.08573963815159047</v>
       </c>
       <c r="F15">
-        <v>6.467119261069456</v>
+        <v>10.51080911638547</v>
       </c>
       <c r="G15">
-        <v>0.002592054617135079</v>
+        <v>0.0007773817867403669</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2952120644473268</v>
+        <v>0.4515183660305837</v>
       </c>
       <c r="K15">
-        <v>2.274805044717198</v>
+        <v>4.524165492265467</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1790838279230513</v>
+        <v>0.40230917619607</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0156806648749992</v>
+        <v>0.05448105841267648</v>
       </c>
       <c r="E16">
-        <v>0.09011235790925909</v>
+        <v>0.07990744500943592</v>
       </c>
       <c r="F16">
-        <v>6.322470896955082</v>
+        <v>9.870653196017514</v>
       </c>
       <c r="G16">
-        <v>0.002596248192746229</v>
+        <v>0.0007859498444032604</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2894370086033859</v>
+        <v>0.4220072924929639</v>
       </c>
       <c r="K16">
-        <v>2.220501895290909</v>
+        <v>4.182027778675433</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1745332296578255</v>
+        <v>0.3849962839836252</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01545135831885602</v>
+        <v>0.05174474495730408</v>
       </c>
       <c r="E17">
-        <v>0.08986299200282488</v>
+        <v>0.07643587858396472</v>
       </c>
       <c r="F17">
-        <v>6.234230714896711</v>
+        <v>9.486662845909478</v>
       </c>
       <c r="G17">
-        <v>0.002598874797138485</v>
+        <v>0.0007911985694042103</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2859343083366923</v>
+        <v>0.4043334409203112</v>
       </c>
       <c r="K17">
-        <v>2.187776196997049</v>
+        <v>3.977595801797861</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1719235999141375</v>
+        <v>0.3751028354303116</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01532229425031062</v>
+        <v>0.05019984323066495</v>
       </c>
       <c r="E18">
-        <v>0.08972712928861526</v>
+        <v>0.07447488217418652</v>
       </c>
       <c r="F18">
-        <v>6.183657323547152</v>
+        <v>9.26871506472213</v>
       </c>
       <c r="G18">
-        <v>0.002600405451789074</v>
+        <v>0.0007942171655319269</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2839342845628465</v>
+        <v>0.3943118698590098</v>
       </c>
       <c r="K18">
-        <v>2.16916800209151</v>
+        <v>3.861830879751665</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1710413565805453</v>
+        <v>0.3717636515685996</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01527907701887443</v>
+        <v>0.0496814475996743</v>
       </c>
       <c r="E19">
-        <v>0.08968242664133186</v>
+        <v>0.07381677101912487</v>
       </c>
       <c r="F19">
-        <v>6.166564718616115</v>
+        <v>9.195396058840714</v>
       </c>
       <c r="G19">
-        <v>0.002600927128796273</v>
+        <v>0.0007952393684465567</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2832596150429652</v>
+        <v>0.3909422088841694</v>
       </c>
       <c r="K19">
-        <v>2.162904364343262</v>
+        <v>3.822930733319424</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1750168462642279</v>
+        <v>0.3868324769006648</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01547547488257095</v>
+        <v>0.05203296315224293</v>
       </c>
       <c r="E20">
-        <v>0.08988875406432228</v>
+        <v>0.07680166124074006</v>
       </c>
       <c r="F20">
-        <v>6.243605342779233</v>
+        <v>9.527231471493849</v>
       </c>
       <c r="G20">
-        <v>0.002598593132229265</v>
+        <v>0.0007906399200647522</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2863056595939781</v>
+        <v>0.4061996497463554</v>
       </c>
       <c r="K20">
-        <v>2.191237650711514</v>
+        <v>3.99916567836334</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.188466541217025</v>
+        <v>0.438271735836878</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01616941108035519</v>
+        <v>0.0603030282722159</v>
       </c>
       <c r="E21">
-        <v>0.09067248295228225</v>
+        <v>0.08728116151512566</v>
       </c>
       <c r="F21">
-        <v>6.504620368826806</v>
+        <v>10.67903870721773</v>
       </c>
       <c r="G21">
-        <v>0.00259098855589329</v>
+        <v>0.0007751652398722055</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2967155555841998</v>
+        <v>0.4592829630336439</v>
       </c>
       <c r="K21">
-        <v>2.289007640528496</v>
+        <v>4.614350678331391</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1973255974078398</v>
+        <v>0.4725906670354476</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01664899367552408</v>
+        <v>0.0660409394904562</v>
       </c>
       <c r="E22">
-        <v>0.09125237717265833</v>
+        <v>0.09452390301832025</v>
       </c>
       <c r="F22">
-        <v>6.67686711515654</v>
+        <v>11.46441633348053</v>
       </c>
       <c r="G22">
-        <v>0.002586194404056035</v>
+        <v>0.0007649935442342048</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3036515757896296</v>
+        <v>0.4955799992512198</v>
       </c>
       <c r="K22">
-        <v>2.354843145885241</v>
+        <v>5.036875405141302</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1925910543711211</v>
+        <v>0.454203205674375</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01639060435000772</v>
+        <v>0.06294395092378124</v>
       </c>
       <c r="E23">
-        <v>0.09093666843327952</v>
+        <v>0.09061818406136268</v>
       </c>
       <c r="F23">
-        <v>6.584781345952536</v>
+        <v>11.04190101782626</v>
       </c>
       <c r="G23">
-        <v>0.002588737104952307</v>
+        <v>0.0007704306747324022</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2999374542084894</v>
+        <v>0.4760433394056918</v>
       </c>
       <c r="K23">
-        <v>2.319527027410345</v>
+        <v>4.809260739299987</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1747981827306404</v>
+        <v>0.386002148629089</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01546456317449696</v>
+        <v>0.05190257251161512</v>
       </c>
       <c r="E24">
-        <v>0.08987708367545721</v>
+        <v>0.07663618311597631</v>
       </c>
       <c r="F24">
-        <v>6.239366584899841</v>
+        <v>9.508881701587541</v>
       </c>
       <c r="G24">
-        <v>0.002598720408953021</v>
+        <v>0.0007908924815919589</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2861377289637517</v>
+        <v>0.4053555059671652</v>
       </c>
       <c r="K24">
-        <v>2.189672085351617</v>
+        <v>3.989408481146256</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1559021711590134</v>
+        <v>0.3148494851712798</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.014573247413459</v>
+        <v>0.04107245299724127</v>
       </c>
       <c r="E25">
-        <v>0.0890232400559583</v>
+        <v>0.06289394507502521</v>
       </c>
       <c r="F25">
-        <v>5.87363064537243</v>
+        <v>7.964180659457128</v>
       </c>
       <c r="G25">
-        <v>0.002610250697791261</v>
+        <v>0.0008129716751202947</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2718107735801709</v>
+        <v>0.3344923867522454</v>
       </c>
       <c r="K25">
-        <v>2.057798903872083</v>
+        <v>3.173067158810227</v>
       </c>
       <c r="L25">
         <v>0</v>
